--- a/printer_box/temp_color_sheet.xlsx
+++ b/printer_box/temp_color_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\printer_box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9115CAC4-B119-4834-B02A-B2708B945360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA6555A-9EA2-4D6D-A481-4D772A2E8C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7D34BC03-A42D-499C-B724-03F84B5A2223}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>4. Deploy optimized models on cloud platform</t>
   </si>
@@ -199,88 +199,94 @@
     <t>8. Monitor and refine the model periodically based on changes in email patterns, feedback from teams, or new labeled data. Retrain if needed to improve accuracy.</t>
   </si>
   <si>
-    <t>Step</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>1. Context</t>
-  </si>
-  <si>
-    <t>2. Problem Statement</t>
-  </si>
-  <si>
-    <t>3. Proposed Solution</t>
-  </si>
-  <si>
-    <t>4. Datasets</t>
-  </si>
-  <si>
-    <t>5. EDA</t>
-  </si>
-  <si>
-    <t>6. Insights Communication</t>
-  </si>
-  <si>
-    <t>Monitor model performance regularly. Retrain with new data.</t>
-  </si>
-  <si>
-    <t>7. Feature Engineering</t>
-  </si>
-  <si>
-    <t>8. Model Building</t>
-  </si>
-  <si>
-    <t>9. Model Fine-tuning</t>
-  </si>
-  <si>
-    <t>10. Model Deployment</t>
-  </si>
-  <si>
-    <t>11. Dashboard</t>
-  </si>
-  <si>
-    <t>12. Monitoring &amp; Retraining</t>
-  </si>
-  <si>
-    <t>Understanding why customers return items provides useful product feedback.</t>
-  </si>
-  <si>
-    <t>How can we predict the reason for a customer return based on available data?</t>
-  </si>
-  <si>
-    <t>Build a classification model using past labelled return reasons and related data.</t>
-  </si>
-  <si>
-    <t>Return records, item details, customer demographics, purchase context.</t>
-  </si>
-  <si>
-    <t>Analyze correlations between reasons and item categories, customer types etc. Check label balances.</t>
-  </si>
-  <si>
-    <t>Present findings from analysis of return drivers. Explain proposed modeling approach.</t>
-  </si>
-  <si>
-    <t>Derive features like item price, customer tenure, channel bought from, etc.</t>
-  </si>
-  <si>
-    <t>Train classification models like random forest, SVM on return reason labels and engineered features.</t>
-  </si>
-  <si>
-    <t>Optimize model hyperparameters for accuracy, recall, precision.</t>
-  </si>
-  <si>
-    <t>Deploy model via API to predict likely return reason for items being returned.</t>
-  </si>
-  <si>
-    <t>Track model accuracy over time. Monitor most frequent return reasons.</t>
-  </si>
-  <si>
-    <t>Retrain model with new return data. Continuously monitor model performance.</t>
-  </si>
-  <si>
-    <t>13. Monitoring &amp; Retraining</t>
+    <t>Step Number</t>
+  </si>
+  <si>
+    <t>1. Data Collection</t>
+  </si>
+  <si>
+    <t>Gather historical customer data including demographics, purchase behavior, interaction with marketing campaigns, etc.</t>
+  </si>
+  <si>
+    <t>2. Data Cleaning</t>
+  </si>
+  <si>
+    <t>Address missing values, outliers, and ensure data consistency and accuracy.</t>
+  </si>
+  <si>
+    <t>3. Exploratory Data Analysis (EDA)</t>
+  </si>
+  <si>
+    <t>Understand data distributions, identify patterns, and gain insights into potential features.</t>
+  </si>
+  <si>
+    <t>4. Feature Engineering</t>
+  </si>
+  <si>
+    <t>Create new variables that might affect the LTV, such as average purchase value, frequency of purchase, etc.</t>
+  </si>
+  <si>
+    <t>5. Model Selection</t>
+  </si>
+  <si>
+    <t>Choose a suitable machine learning algorithm for LTV prediction, such as regression models, ensemble methods, etc.</t>
+  </si>
+  <si>
+    <t>6. Model Training</t>
+  </si>
+  <si>
+    <t>Use historical data to train the model to predict LTV.</t>
+  </si>
+  <si>
+    <t>7. Model Validation</t>
+  </si>
+  <si>
+    <t>Split the data into training and validation sets to evaluate model accuracy and adjust parameters as needed.</t>
+  </si>
+  <si>
+    <t>8. Segmentation</t>
+  </si>
+  <si>
+    <t>Once LTV is predicted, segment customers into categories (e.g., high, medium, low LTV).</t>
+  </si>
+  <si>
+    <t>9. AB Testing Design</t>
+  </si>
+  <si>
+    <t>Design an AB test where tailored offers are sent to a subset of high LTV customers, while others remain a control group.</t>
+  </si>
+  <si>
+    <t>10. Implement Offers</t>
+  </si>
+  <si>
+    <t>Roll out offers to the selected subset of high LTV customers.</t>
+  </si>
+  <si>
+    <t>11. Evaluate Results</t>
+  </si>
+  <si>
+    <t>After a defined period, measure the retention rate of high LTV customers who received the offers versus those who didn't.</t>
+  </si>
+  <si>
+    <t>12. Insights &amp; Recommendations</t>
+  </si>
+  <si>
+    <t>Based on the results, provide insights and recommend strategies for customer retention.</t>
+  </si>
+  <si>
+    <t>13. Deployment</t>
+  </si>
+  <si>
+    <t>If successful, integrate the LTV prediction model into the business process and regularly update it with new data. Implement retention strategies based on model outputs.</t>
+  </si>
+  <si>
+    <t>14. Monitoring &amp; Retraining</t>
+  </si>
+  <si>
+    <t>Regularly monitor the model's accuracy and retrain it with fresh data to ensure its effectiveness.</t>
   </si>
 </sst>
 </file>
@@ -990,10 +996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DF7FD2-FEF9-4104-98D6-F29D3592795F}">
-  <dimension ref="D3:E16"/>
+  <dimension ref="D3:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1006,114 +1012,122 @@
   <sheetData>
     <row r="3" spans="4:5" ht="18.5" x14ac:dyDescent="0.35">
       <c r="D3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D4" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="4:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D5" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D6" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D7" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="58" x14ac:dyDescent="0.35">
       <c r="D8" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="4:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D10" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D11" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" ht="29" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D12" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="4:5" ht="29" x14ac:dyDescent="0.35">
       <c r="D13" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="D14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D15" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="4:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="4:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="5" t="s">
+    <row r="16" spans="4:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D16" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="4:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>65</v>
+    </row>
+    <row r="17" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/printer_box/temp_color_sheet.xlsx
+++ b/printer_box/temp_color_sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\printer_box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA6555A-9EA2-4D6D-A481-4D772A2E8C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB62A9A1-2224-4EE4-820C-4BD86D00ECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7D34BC03-A42D-499C-B724-03F84B5A2223}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t>4. Deploy optimized models on cloud platform</t>
   </si>
@@ -199,60 +200,6 @@
     <t>8. Monitor and refine the model periodically based on changes in email patterns, feedback from teams, or new labeled data. Retrain if needed to improve accuracy.</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Step Number</t>
-  </si>
-  <si>
-    <t>1. Data Collection</t>
-  </si>
-  <si>
-    <t>Gather historical customer data including demographics, purchase behavior, interaction with marketing campaigns, etc.</t>
-  </si>
-  <si>
-    <t>2. Data Cleaning</t>
-  </si>
-  <si>
-    <t>Address missing values, outliers, and ensure data consistency and accuracy.</t>
-  </si>
-  <si>
-    <t>3. Exploratory Data Analysis (EDA)</t>
-  </si>
-  <si>
-    <t>Understand data distributions, identify patterns, and gain insights into potential features.</t>
-  </si>
-  <si>
-    <t>4. Feature Engineering</t>
-  </si>
-  <si>
-    <t>Create new variables that might affect the LTV, such as average purchase value, frequency of purchase, etc.</t>
-  </si>
-  <si>
-    <t>5. Model Selection</t>
-  </si>
-  <si>
-    <t>Choose a suitable machine learning algorithm for LTV prediction, such as regression models, ensemble methods, etc.</t>
-  </si>
-  <si>
-    <t>6. Model Training</t>
-  </si>
-  <si>
-    <t>Use historical data to train the model to predict LTV.</t>
-  </si>
-  <si>
-    <t>7. Model Validation</t>
-  </si>
-  <si>
-    <t>Split the data into training and validation sets to evaluate model accuracy and adjust parameters as needed.</t>
-  </si>
-  <si>
-    <t>8. Segmentation</t>
-  </si>
-  <si>
-    <t>Once LTV is predicted, segment customers into categories (e.g., high, medium, low LTV).</t>
-  </si>
-  <si>
     <t>9. AB Testing Design</t>
   </si>
   <si>
@@ -287,13 +234,115 @@
   </si>
   <si>
     <t>Regularly monitor the model's accuracy and retrain it with fresh data to ensure its effectiveness.</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t>Inserting (Push)</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>Deleting (Pop)</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>Updating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack </t>
+  </si>
+  <si>
+    <t>Enqueue</t>
+  </si>
+  <si>
+    <t>Dequeue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue </t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Binary, Multiclass</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>Type of classification</t>
+  </si>
+  <si>
+    <t>7. Robust: It is resilient to imbalanced datasets by adjusting the class weights.</t>
+  </si>
+  <si>
+    <t>Technical Explanation</t>
+  </si>
+  <si>
+    <t>Pruning</t>
+  </si>
+  <si>
+    <t>Technique to reduce the size of the tree by removing branches that have little power in predicting the target variable. Helps in reducing overfitting.</t>
+  </si>
+  <si>
+    <t>Simplifying the game by eliminating questions or paths that don't help much in reaching the correct answer.</t>
+  </si>
+  <si>
+    <t>Handling Missing Data</t>
+  </si>
+  <si>
+    <t>Strategies such as imputation or surrogate splits can be used.</t>
+  </si>
+  <si>
+    <t>Like guessing the answer to a question if someone doesn't provide it, based on other related questions they've answered.</t>
+  </si>
+  <si>
+    <t>Simple Analogy</t>
+  </si>
+  <si>
+    <t>GINI Impurity</t>
+  </si>
+  <si>
+    <t>Measures the probability of incorrectly classifying a randomly chosen sample. A GINI score of 0 indicates pure separation.</t>
+  </si>
+  <si>
+    <t>Imagine a jar of candies. If all candies are of the same type, it's pure (GINI = 0). If it's a mix, the jar has higher impurity.</t>
+  </si>
+  <si>
+    <t>Information Gain</t>
+  </si>
+  <si>
+    <t>Indicates the effectiveness of an attribute in reducing the uncertainty. It's calculated as the difference between entropy before the split and the weighted entropy of the two child nodes after the split.</t>
+  </si>
+  <si>
+    <t>You have a messy drawer. Each time you organize a part of it (split), you remove some chaos. The measure of chaos you remove is the information gain.</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>Measures the randomness or unpredictability in the dataset. A set with a single class has zero entropy, while a 50-50 class distribution has maximum entropy.</t>
+  </si>
+  <si>
+    <t>Think of a shuffled deck of cards. If all cards are of one suit, it's predictable (Entropy = 0). If suits are mixed evenly, it's very unpredictable.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +352,13 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -360,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -377,17 +433,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,138 +1073,284 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DF7FD2-FEF9-4104-98D6-F29D3592795F}">
-  <dimension ref="D3:E17"/>
+  <dimension ref="D3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="4"/>
-    <col min="4" max="4" width="24.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="5" customWidth="1"/>
     <col min="5" max="5" width="37" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="4"/>
+    <col min="6" max="6" width="46.90625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="37" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="4:7" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="D3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" ht="74" x14ac:dyDescent="0.35">
+      <c r="D4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" ht="129.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="111" x14ac:dyDescent="0.35">
+      <c r="D6" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="129.5" x14ac:dyDescent="0.35">
+      <c r="D7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="111" x14ac:dyDescent="0.35">
+      <c r="D8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="92.5" x14ac:dyDescent="0.35">
+      <c r="D9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="55.5" x14ac:dyDescent="0.35">
+      <c r="D10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="D11" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="13" spans="4:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="D13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="D14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C952B84-B6F6-4770-BCCE-A7C40FEA2DF4}">
+  <dimension ref="D3:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="19.453125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
       <c r="E3" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="D8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D10" s="6" t="s">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D11" s="7" t="s">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F5" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E6" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D12" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="5" t="s">
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E7" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="4:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F7" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="4:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="D14" s="6" t="s">
+      <c r="F10" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="D16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>86</v>
+      <c r="F11" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/printer_box/temp_color_sheet.xlsx
+++ b/printer_box/temp_color_sheet.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\printer_box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB62A9A1-2224-4EE4-820C-4BD86D00ECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE137A58-028C-48EE-B677-00B55EEF5A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7D34BC03-A42D-499C-B724-03F84B5A2223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{7D34BC03-A42D-499C-B724-03F84B5A2223}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="142">
   <si>
     <t>4. Deploy optimized models on cloud platform</t>
   </si>
@@ -236,42 +238,6 @@
     <t>Regularly monitor the model's accuracy and retrain it with fresh data to ensure its effectiveness.</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>Time Complexity</t>
-  </si>
-  <si>
-    <t>Inserting (Push)</t>
-  </si>
-  <si>
-    <t>O(1)</t>
-  </si>
-  <si>
-    <t>Deleting (Pop)</t>
-  </si>
-  <si>
-    <t>Searching</t>
-  </si>
-  <si>
-    <t>O(n)</t>
-  </si>
-  <si>
-    <t>Updating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stack </t>
-  </si>
-  <si>
-    <t>Enqueue</t>
-  </si>
-  <si>
-    <t>Dequeue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue </t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -336,13 +302,166 @@
   </si>
   <si>
     <t>Think of a shuffled deck of cards. If all cards are of one suit, it's predictable (Entropy = 0). If suits are mixed evenly, it's very unpredictable.</t>
+  </si>
+  <si>
+    <t>FFN</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>Final Layer Normalization</t>
+  </si>
+  <si>
+    <t>Head 1</t>
+  </si>
+  <si>
+    <t>Head 2</t>
+  </si>
+  <si>
+    <t>Head 3</t>
+  </si>
+  <si>
+    <t>Head 4</t>
+  </si>
+  <si>
+    <t>Head 5</t>
+  </si>
+  <si>
+    <t>Head 6</t>
+  </si>
+  <si>
+    <t>Head 7</t>
+  </si>
+  <si>
+    <t>Head 8</t>
+  </si>
+  <si>
+    <t>Multi Head Attention Block</t>
+  </si>
+  <si>
+    <t>Masked Multi Head Attention Block</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Output Vector (for 'sweet' token)</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>[0.5, 0.2, 0.7]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.3, 0.8]</t>
+  </si>
+  <si>
+    <t>[0.9, 0.5, 1.5]</t>
+  </si>
+  <si>
+    <t>[0.6, 0.3, 1.2]</t>
+  </si>
+  <si>
+    <t>Feed-Forward Neural Network</t>
+  </si>
+  <si>
+    <t>[0.8, 0.2, 1.0]</t>
+  </si>
+  <si>
+    <t>Residual Connection (2nd)</t>
+  </si>
+  <si>
+    <t>Output from FFNN added to its input</t>
+  </si>
+  <si>
+    <t>[1.4, 0.5, 2.2]</t>
+  </si>
+  <si>
+    <t>Layer Normalization (2nd)</t>
+  </si>
+  <si>
+    <t>Final normalization (simplified for example)</t>
+  </si>
+  <si>
+    <t>[1.1, 0.4, 1.9]</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Benefits/Role</t>
+  </si>
+  <si>
+    <t>Residual Connections</t>
+  </si>
+  <si>
+    <t>- Mitigate the vanishing gradient problem. - Facilitate training of deeper networks. - Allow the gradient to "bypass" layers. - Avoid accuracy degradation in very deep networks.</t>
+  </si>
+  <si>
+    <t>Layer Normalization</t>
+  </si>
+  <si>
+    <t>- Stabilize the activations of neurons. - Mitigate internal covariate shift. - Normalize activations on a single training example, accelerating training. - Allow usage of higher learning rates.</t>
+  </si>
+  <si>
+    <t>Sequential Normalization</t>
+  </si>
+  <si>
+    <t>After attention or FFNN, it helps stabilize the activations, ensuring they're within a reasonable range before proceeding to the next layer or operation.</t>
+  </si>
+  <si>
+    <t>Adds additional transformation and modeling capacity to the architecture.</t>
+  </si>
+  <si>
+    <t>Modeling Flexibility</t>
+  </si>
+  <si>
+    <t>Combination of direct (from residual connections) and transformed information (from attention or FFNN) offers flexibility in how information is processed and represented in the model.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,8 +484,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +542,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -412,11 +563,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -440,9 +606,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -465,6 +628,69 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,9 +700,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFCCFF99"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFCCFFFF"/>
+      <color rgb="FF63D4EF"/>
+      <color rgb="FFF55DCD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1075,7 +1303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DF7FD2-FEF9-4104-98D6-F29D3592795F}">
   <dimension ref="D3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F8"/>
     </sheetView>
   </sheetViews>
@@ -1090,118 +1318,118 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" ht="74" x14ac:dyDescent="0.35">
+      <c r="D4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" ht="129.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="4:7" ht="74" x14ac:dyDescent="0.35">
-      <c r="D4" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="4:7" ht="129.5" x14ac:dyDescent="0.35">
-      <c r="D5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>99</v>
+      <c r="F5" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="111" x14ac:dyDescent="0.35">
-      <c r="D6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>102</v>
+      <c r="D6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="129.5" x14ac:dyDescent="0.35">
-      <c r="D7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>99</v>
+      <c r="D7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="111" x14ac:dyDescent="0.35">
-      <c r="D8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>102</v>
+      <c r="D8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="92.5" x14ac:dyDescent="0.35">
-      <c r="D9" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>89</v>
+      <c r="D9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="55.5" x14ac:dyDescent="0.35">
-      <c r="D10" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="D11" s="12" t="s">
-        <v>85</v>
+      <c r="D10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D11" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="4:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1209,7 +1437,7 @@
       </c>
     </row>
     <row r="13" spans="4:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1217,7 +1445,7 @@
       </c>
     </row>
     <row r="14" spans="4:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1225,7 +1453,7 @@
       </c>
     </row>
     <row r="15" spans="4:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1233,7 +1461,7 @@
       </c>
     </row>
     <row r="16" spans="4:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1241,7 +1469,7 @@
       </c>
     </row>
     <row r="17" spans="4:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1255,102 +1483,869 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C952B84-B6F6-4770-BCCE-A7C40FEA2DF4}">
-  <dimension ref="D3:F13"/>
+  <dimension ref="C1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="19.453125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" style="16"/>
+    <col min="5" max="5" width="9.08984375" style="8"/>
+    <col min="13" max="13" width="22.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E6" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>75</v>
+    <row r="1" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="18"/>
+      <c r="D2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="18"/>
+      <c r="D3" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="18"/>
+      <c r="D4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="18"/>
+      <c r="D5" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="18"/>
+      <c r="D6" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="18"/>
+      <c r="D7" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="3:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="18"/>
+      <c r="D10" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="18"/>
+      <c r="D11" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="18"/>
+      <c r="D12" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="18"/>
+      <c r="D13" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="18"/>
+      <c r="D14" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="18"/>
+      <c r="D15" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="18"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="18" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="18"/>
+      <c r="D19" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="18"/>
+      <c r="D20" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="18"/>
+      <c r="D21" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="18"/>
+      <c r="D22" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="18"/>
+      <c r="D23" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="18"/>
+      <c r="D24" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="18"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E26"/>
+      <c r="F26" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:C7"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="C18:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795F3154-1456-40A4-89DF-61874BFB1853}">
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="46.54296875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46.54296875" style="8"/>
+    <col min="2" max="2" width="46.54296875" style="31"/>
+    <col min="3" max="3" width="46.54296875" style="17"/>
+    <col min="4" max="4" width="46.54296875" style="31"/>
+    <col min="5" max="16384" width="46.54296875" style="8"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D028BC32-CEE8-400A-A462-9EF600DA980E}">
+  <dimension ref="C2:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="83.26953125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/printer_box/temp_color_sheet.xlsx
+++ b/printer_box/temp_color_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\printer_box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE137A58-028C-48EE-B677-00B55EEF5A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829C454E-7AC3-4594-8E81-78D95C8200A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{7D34BC03-A42D-499C-B724-03F84B5A2223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{7D34BC03-A42D-499C-B724-03F84B5A2223}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="182">
   <si>
     <t>4. Deploy optimized models on cloud platform</t>
   </si>
@@ -382,79 +383,199 @@
     <t>D</t>
   </si>
   <si>
-    <t>Output Vector (for 'sweet' token)</t>
-  </si>
-  <si>
-    <t>Dimensions</t>
-  </si>
-  <si>
-    <t>[0.5, 0.2, 0.7]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.3, 0.8]</t>
-  </si>
-  <si>
-    <t>[0.9, 0.5, 1.5]</t>
-  </si>
-  <si>
-    <t>[0.6, 0.3, 1.2]</t>
-  </si>
-  <si>
-    <t>Feed-Forward Neural Network</t>
-  </si>
-  <si>
-    <t>[0.8, 0.2, 1.0]</t>
-  </si>
-  <si>
-    <t>Residual Connection (2nd)</t>
-  </si>
-  <si>
-    <t>Output from FFNN added to its input</t>
-  </si>
-  <si>
-    <t>[1.4, 0.5, 2.2]</t>
-  </si>
-  <si>
-    <t>Layer Normalization (2nd)</t>
-  </si>
-  <si>
-    <t>Final normalization (simplified for example)</t>
-  </si>
-  <si>
-    <t>[1.1, 0.4, 1.9]</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Benefits/Role</t>
-  </si>
-  <si>
-    <t>Residual Connections</t>
-  </si>
-  <si>
-    <t>- Mitigate the vanishing gradient problem. - Facilitate training of deeper networks. - Allow the gradient to "bypass" layers. - Avoid accuracy degradation in very deep networks.</t>
-  </si>
-  <si>
-    <t>Layer Normalization</t>
-  </si>
-  <si>
-    <t>- Stabilize the activations of neurons. - Mitigate internal covariate shift. - Normalize activations on a single training example, accelerating training. - Allow usage of higher learning rates.</t>
-  </si>
-  <si>
-    <t>Sequential Normalization</t>
-  </si>
-  <si>
-    <t>After attention or FFNN, it helps stabilize the activations, ensuring they're within a reasonable range before proceeding to the next layer or operation.</t>
-  </si>
-  <si>
-    <t>Adds additional transformation and modeling capacity to the architecture.</t>
-  </si>
-  <si>
-    <t>Modeling Flexibility</t>
-  </si>
-  <si>
-    <t>Combination of direct (from residual connections) and transformed information (from attention or FFNN) offers flexibility in how information is processed and represented in the model.</t>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Security &amp; Privacy</t>
+  </si>
+  <si>
+    <t>Language Modeling</t>
+  </si>
+  <si>
+    <t>- Exceptional at understanding and generating human-like text.&lt;br&gt;- Trained on diverse data, allowing it to handle complex language structures.</t>
+  </si>
+  <si>
+    <t>- Might not inherently know niche legal terms or concepts unless specifically trained on legal data.</t>
+  </si>
+  <si>
+    <t>Abstractive Summarization</t>
+  </si>
+  <si>
+    <t>- Can generate summaries that aren't just extracts from the original document.&lt;br&gt;- Can potentially simplify complex legal language for a broader audience.</t>
+  </si>
+  <si>
+    <t>- Might introduce information not present in the original document.&lt;br&gt;- Risk of oversimplifying legal nuances.</t>
+  </si>
+  <si>
+    <t>Flexibility</t>
+  </si>
+  <si>
+    <t>- Can be fine-tuned for specific tasks and datasets.&lt;br&gt;- Can adapt to specific requirements of legal summarization with the right data.</t>
+  </si>
+  <si>
+    <t>- Requires a substantial amount of representative data for fine-tuning to be effective.</t>
+  </si>
+  <si>
+    <t>- Can handle large amounts of data and produce summaries quickly.</t>
+  </si>
+  <si>
+    <t>- The larger models require substantial computational resources, which can be costly.</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>- Generates summaries consistently without fatigue.</t>
+  </si>
+  <si>
+    <t>- Might miss subtle nuances or biases present in the training data.</t>
+  </si>
+  <si>
+    <t>Interactivity</t>
+  </si>
+  <si>
+    <t>- Can be integrated into interactive systems for iterative refinement based on user feedback.</t>
+  </si>
+  <si>
+    <t>- Does not reason like a human, so iterative refinements may sometimes be off-mark.</t>
+  </si>
+  <si>
+    <t>Domain Adaptation</t>
+  </si>
+  <si>
+    <t>- Potential to understand and adapt to legal language and terminology.</t>
+  </si>
+  <si>
+    <t>- Without domain-specific fine-tuning, there's a risk of inaccuracies or misconceptions in generated content.</t>
+  </si>
+  <si>
+    <t>- Since it's a model that generates text, there's no inherent risk of exposing database content or raw documents directly.</t>
+  </si>
+  <si>
+    <t>- If fed sensitive data during finetuning, there's a risk that the model can generate outputs that resemble or reference the training data, potentially leaking sensitive information.&lt;br&gt;- Care is needed when deploying to ensure API calls are secured and not exposed to unauthorized parties.</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Fundamental Questions</t>
+  </si>
+  <si>
+    <t>How does the attention mechanism help in handling long sequences?</t>
+  </si>
+  <si>
+    <t>Can you explain the difference between global and local attention?</t>
+  </si>
+  <si>
+    <t>Describe the architecture of a standard Transformer model.</t>
+  </si>
+  <si>
+    <t>How does multi-head attention in a Transformer model enhance its capabilities?</t>
+  </si>
+  <si>
+    <t>What are the primary pre-training objectives of BERT?</t>
+  </si>
+  <si>
+    <t>How does BERT handle the representation of context in word embeddings?</t>
+  </si>
+  <si>
+    <t>In sequence-to-sequence models, what is the primary role of an encoder?</t>
+  </si>
+  <si>
+    <t>How do recurrent layers, such as LSTM or GRU, differ from encoders in Transformer architectures?</t>
+  </si>
+  <si>
+    <t>Why are masked multi-head self-attention mechanisms essential in decoders of Transformer-based sequence-to-sequence models?</t>
+  </si>
+  <si>
+    <t>In the context of machine translation, how does the decoder generate the target sequence?</t>
+  </si>
+  <si>
+    <t>BERTSUM</t>
+  </si>
+  <si>
+    <t>How does BERTSUM modify the standard BERT architecture to make it suitable for extractive summarization?</t>
+  </si>
+  <si>
+    <t>What are the advantages of using BERTSUM for extractive summarization over traditional methods?</t>
+  </si>
+  <si>
+    <t>GPT-2</t>
+  </si>
+  <si>
+    <t>How does the architecture of GPT-2 differ from the original Transformer?</t>
+  </si>
+  <si>
+    <t>Explain the role of the positional encoding in models like GPT-2 that lack recurrent layers.</t>
+  </si>
+  <si>
+    <t>Metrics for Text Summarization</t>
+  </si>
+  <si>
+    <t>Describe the significance and calculation of the ROGUE score in text summarization.</t>
+  </si>
+  <si>
+    <t>How do metrics like BLEU and METEOR differ in evaluating the quality of generated summaries?</t>
+  </si>
+  <si>
+    <t>High-Level Questions</t>
+  </si>
+  <si>
+    <t>How do you balance the trade-offs between interpretability provided by extractive summarization and the depth offered by abstractive methods, especially in a banking legal context?</t>
+  </si>
+  <si>
+    <t>Given the sensitive nature of legal briefs for banking, what steps did you take to ensure that the generated summaries didn't unintentionally reveal confidential information?</t>
+  </si>
+  <si>
+    <t>Explain the significance of BERT embeddings in the context of text summarization and how it differs from other embeddings in capturing context?</t>
+  </si>
+  <si>
+    <t>How did you evaluate the quality of the extractive summaries before deciding to move to abstractive summaries? Were there any key indicators or feedback from stakeholders?</t>
+  </si>
+  <si>
+    <t>In what scenarios would you advocate for using extractive summarization over abstractive summarization for banking legal documents, and vice versa?</t>
+  </si>
+  <si>
+    <t>What challenges did you face when fine-tuning models like T5 and GPT-2 for legal document summarization, given their general pre-training backgrounds?</t>
+  </si>
+  <si>
+    <t>Given the wide array of metrics like ROGUE, BLEU, and METEOR, how did you prioritize or combine them to ensure an overall effective evaluation of the summaries in a banking context?</t>
+  </si>
+  <si>
+    <t>Considering the achieved average accuracy of 89%, what steps or strategies are you considering to further improve the summarization results?</t>
+  </si>
+  <si>
+    <t>How do you ensure that your models stay updated and relevant, especially considering the evolving nature of legal terminology and regulations in the banking sector?</t>
+  </si>
+  <si>
+    <t>From a stakeholder's perspective, what feedback loops or systems did you establish to continuously refine the summarization process based on actual usage and feedback from banking clients?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overview point </t>
+  </si>
+  <si>
+    <t>Extractive</t>
+  </si>
+  <si>
+    <t>Abstractive T5</t>
+  </si>
+  <si>
+    <t>Abstractive GPT 2</t>
+  </si>
+  <si>
+    <t>Metrics, Interpretability</t>
+  </si>
+  <si>
+    <t>Deployment and Scalability</t>
   </si>
 </sst>
 </file>
@@ -499,13 +620,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,8 +675,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -578,11 +717,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -635,9 +789,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,38 +810,59 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,217 +1669,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="19"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="18"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="18"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="18"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="18"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="18"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="18"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1721,460 +1893,460 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="3:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="22"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="18"/>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="18"/>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="18"/>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="18"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="18"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="18"/>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="18"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="18" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="25"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="18"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="M19" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="18"/>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="L20" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="18"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="L21" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="18"/>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="18"/>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="L23" s="27" t="s">
+      <c r="L23" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="M23" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="18"/>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="M24" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="18"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2207,9 +2379,9 @@
   <sheetFormatPr defaultColWidth="46.54296875" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46.54296875" style="8"/>
-    <col min="2" max="2" width="46.54296875" style="31"/>
+    <col min="2" max="2" width="46.54296875" style="27"/>
     <col min="3" max="3" width="46.54296875" style="17"/>
-    <col min="4" max="4" width="46.54296875" style="31"/>
+    <col min="4" max="4" width="46.54296875" style="27"/>
     <col min="5" max="16384" width="46.54296875" style="8"/>
   </cols>
   <sheetData/>
@@ -2220,132 +2392,318 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D028BC32-CEE8-400A-A462-9EF600DA980E}">
-  <dimension ref="C2:G9"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E7"/>
+    <sheetView topLeftCell="B9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="B2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="23.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="83.26953125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" style="4"/>
+    <col min="3" max="3" width="53.453125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.90625" style="17"/>
+    <col min="6" max="6" width="23.90625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="D2" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B4" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="D6" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="32" t="s">
+    </row>
+    <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="C7" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="33" t="s">
+      <c r="D7" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="17" t="s">
+    </row>
+    <row r="8" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="16" t="s">
+    </row>
+    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B9" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D8" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="16">
-        <v>3</v>
+      <c r="C10" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D118034-0CCA-485A-A72C-5F5C8D033125}">
+  <dimension ref="E1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="39.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="29.26953125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="76.90625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="65.6328125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E1" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="40">
+        <v>7</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="42">
+        <v>8</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="40">
+        <v>9</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="42">
+        <v>10</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="40">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="42">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="40">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="42">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="40">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="42">
+        <v>16</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
